--- a/po_analysis_by_asin/B0CSK2GHR8_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK2GHR8_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>90</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>160</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>200</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>40</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>80</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>60</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>60</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>160</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>160</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>160</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>40</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>200</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>380</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>20</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>620</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>280</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>420</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>80</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>580</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>220</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>480</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>740</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>90</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>240</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>380</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>580</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>1220</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>780</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>2020</v>

--- a/po_analysis_by_asin/B0CSK2GHR8_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK2GHR8_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,47 +468,47 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>60</v>
@@ -516,15 +516,15 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>160</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>160</v>
@@ -540,105 +540,97 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>380</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>620</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>420</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>220</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B25" t="n">
         <v>740</v>
       </c>
     </row>
@@ -686,7 +678,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">

--- a/po_analysis_by_asin/B0CSK2GHR8_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK2GHR8_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -727,6 +728,481 @@
       </c>
       <c r="B9" t="n">
         <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-344.8913957505893</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79.43642462206171</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-250.6053930148383</v>
+      </c>
+      <c r="D3" t="n">
+        <v>179.8607496433505</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>120</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-91.85252092335469</v>
+      </c>
+      <c r="D4" t="n">
+        <v>336.3122849661364</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>133</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-69.48116964857918</v>
+      </c>
+      <c r="D5" t="n">
+        <v>337.7686593284902</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>146</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-69.94042437214122</v>
+      </c>
+      <c r="D6" t="n">
+        <v>360.0482599983919</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>159</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-64.76651296190967</v>
+      </c>
+      <c r="D7" t="n">
+        <v>363.7867663003507</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>172</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-27.03140211019504</v>
+      </c>
+      <c r="D8" t="n">
+        <v>384.3669868376656</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>185</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-16.689439637796</v>
+      </c>
+      <c r="D9" t="n">
+        <v>383.808309310126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>197</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-9.083000635897639</v>
+      </c>
+      <c r="D10" t="n">
+        <v>408.0734889637212</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>210</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.74375050023145</v>
+      </c>
+      <c r="D11" t="n">
+        <v>424.0790683222779</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>223</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.24129708208288</v>
+      </c>
+      <c r="D12" t="n">
+        <v>434.4657237931169</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>236</v>
+      </c>
+      <c r="C13" t="n">
+        <v>29.41068164052675</v>
+      </c>
+      <c r="D13" t="n">
+        <v>441.326732151141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>249</v>
+      </c>
+      <c r="C14" t="n">
+        <v>36.99919517461006</v>
+      </c>
+      <c r="D14" t="n">
+        <v>444.6164490801217</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>262</v>
+      </c>
+      <c r="C15" t="n">
+        <v>38.81511723886322</v>
+      </c>
+      <c r="D15" t="n">
+        <v>472.430285207048</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>274</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65.09237655275901</v>
+      </c>
+      <c r="D16" t="n">
+        <v>491.706650762917</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>287</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77.36444204645929</v>
+      </c>
+      <c r="D17" t="n">
+        <v>487.2825567815005</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>300</v>
+      </c>
+      <c r="C18" t="n">
+        <v>94.002214786078</v>
+      </c>
+      <c r="D18" t="n">
+        <v>494.3916492086854</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>313</v>
+      </c>
+      <c r="C19" t="n">
+        <v>105.2928480819296</v>
+      </c>
+      <c r="D19" t="n">
+        <v>531.8727944574343</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>326</v>
+      </c>
+      <c r="C20" t="n">
+        <v>123.8520269043571</v>
+      </c>
+      <c r="D20" t="n">
+        <v>542.443192061745</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>364</v>
+      </c>
+      <c r="C21" t="n">
+        <v>145.6552915850334</v>
+      </c>
+      <c r="D21" t="n">
+        <v>574.5929209652927</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>377</v>
+      </c>
+      <c r="C22" t="n">
+        <v>170.4020947717495</v>
+      </c>
+      <c r="D22" t="n">
+        <v>584.0244957820146</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>390</v>
+      </c>
+      <c r="C23" t="n">
+        <v>172.1445564250488</v>
+      </c>
+      <c r="D23" t="n">
+        <v>596.7196259413596</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>403</v>
+      </c>
+      <c r="C24" t="n">
+        <v>192.7230228741888</v>
+      </c>
+      <c r="D24" t="n">
+        <v>612.5983421428283</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>416</v>
+      </c>
+      <c r="C25" t="n">
+        <v>210.4104467049697</v>
+      </c>
+      <c r="D25" t="n">
+        <v>623.5305610183304</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>428</v>
+      </c>
+      <c r="C26" t="n">
+        <v>231.6992823292917</v>
+      </c>
+      <c r="D26" t="n">
+        <v>644.4519300335496</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>441</v>
+      </c>
+      <c r="C27" t="n">
+        <v>234.4879009816692</v>
+      </c>
+      <c r="D27" t="n">
+        <v>660.3934131120953</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>454</v>
+      </c>
+      <c r="C28" t="n">
+        <v>256.2012368352203</v>
+      </c>
+      <c r="D28" t="n">
+        <v>672.3492434766398</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>467</v>
+      </c>
+      <c r="C29" t="n">
+        <v>278.5859057751361</v>
+      </c>
+      <c r="D29" t="n">
+        <v>677.3647941033067</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>480</v>
+      </c>
+      <c r="C30" t="n">
+        <v>264.1697510143547</v>
+      </c>
+      <c r="D30" t="n">
+        <v>678.809914980198</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>492</v>
+      </c>
+      <c r="C31" t="n">
+        <v>286.133296431012</v>
+      </c>
+      <c r="D31" t="n">
+        <v>689.1069039644377</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>505</v>
+      </c>
+      <c r="C32" t="n">
+        <v>297.1381962080254</v>
+      </c>
+      <c r="D32" t="n">
+        <v>735.0879147929671</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSK2GHR8_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSK2GHR8_po_data.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,16 +760,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -778,12 +768,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-344.8913957505893</v>
-      </c>
-      <c r="D2" t="n">
-        <v>79.43642462206171</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -792,12 +776,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-250.6053930148383</v>
-      </c>
-      <c r="D3" t="n">
-        <v>179.8607496433505</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -806,12 +784,6 @@
       <c r="B4" t="n">
         <v>120</v>
       </c>
-      <c r="C4" t="n">
-        <v>-91.85252092335469</v>
-      </c>
-      <c r="D4" t="n">
-        <v>336.3122849661364</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -820,12 +792,6 @@
       <c r="B5" t="n">
         <v>133</v>
       </c>
-      <c r="C5" t="n">
-        <v>-69.48116964857918</v>
-      </c>
-      <c r="D5" t="n">
-        <v>337.7686593284902</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -834,12 +800,6 @@
       <c r="B6" t="n">
         <v>146</v>
       </c>
-      <c r="C6" t="n">
-        <v>-69.94042437214122</v>
-      </c>
-      <c r="D6" t="n">
-        <v>360.0482599983919</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -848,12 +808,6 @@
       <c r="B7" t="n">
         <v>159</v>
       </c>
-      <c r="C7" t="n">
-        <v>-64.76651296190967</v>
-      </c>
-      <c r="D7" t="n">
-        <v>363.7867663003507</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -862,12 +816,6 @@
       <c r="B8" t="n">
         <v>172</v>
       </c>
-      <c r="C8" t="n">
-        <v>-27.03140211019504</v>
-      </c>
-      <c r="D8" t="n">
-        <v>384.3669868376656</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -876,12 +824,6 @@
       <c r="B9" t="n">
         <v>185</v>
       </c>
-      <c r="C9" t="n">
-        <v>-16.689439637796</v>
-      </c>
-      <c r="D9" t="n">
-        <v>383.808309310126</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -890,12 +832,6 @@
       <c r="B10" t="n">
         <v>197</v>
       </c>
-      <c r="C10" t="n">
-        <v>-9.083000635897639</v>
-      </c>
-      <c r="D10" t="n">
-        <v>408.0734889637212</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -904,12 +840,6 @@
       <c r="B11" t="n">
         <v>210</v>
       </c>
-      <c r="C11" t="n">
-        <v>5.74375050023145</v>
-      </c>
-      <c r="D11" t="n">
-        <v>424.0790683222779</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -918,12 +848,6 @@
       <c r="B12" t="n">
         <v>223</v>
       </c>
-      <c r="C12" t="n">
-        <v>14.24129708208288</v>
-      </c>
-      <c r="D12" t="n">
-        <v>434.4657237931169</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -932,12 +856,6 @@
       <c r="B13" t="n">
         <v>236</v>
       </c>
-      <c r="C13" t="n">
-        <v>29.41068164052675</v>
-      </c>
-      <c r="D13" t="n">
-        <v>441.326732151141</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -946,12 +864,6 @@
       <c r="B14" t="n">
         <v>249</v>
       </c>
-      <c r="C14" t="n">
-        <v>36.99919517461006</v>
-      </c>
-      <c r="D14" t="n">
-        <v>444.6164490801217</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -960,12 +872,6 @@
       <c r="B15" t="n">
         <v>262</v>
       </c>
-      <c r="C15" t="n">
-        <v>38.81511723886322</v>
-      </c>
-      <c r="D15" t="n">
-        <v>472.430285207048</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -974,12 +880,6 @@
       <c r="B16" t="n">
         <v>274</v>
       </c>
-      <c r="C16" t="n">
-        <v>65.09237655275901</v>
-      </c>
-      <c r="D16" t="n">
-        <v>491.706650762917</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -988,12 +888,6 @@
       <c r="B17" t="n">
         <v>287</v>
       </c>
-      <c r="C17" t="n">
-        <v>77.36444204645929</v>
-      </c>
-      <c r="D17" t="n">
-        <v>487.2825567815005</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1002,12 +896,6 @@
       <c r="B18" t="n">
         <v>300</v>
       </c>
-      <c r="C18" t="n">
-        <v>94.002214786078</v>
-      </c>
-      <c r="D18" t="n">
-        <v>494.3916492086854</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1016,12 +904,6 @@
       <c r="B19" t="n">
         <v>313</v>
       </c>
-      <c r="C19" t="n">
-        <v>105.2928480819296</v>
-      </c>
-      <c r="D19" t="n">
-        <v>531.8727944574343</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1030,12 +912,6 @@
       <c r="B20" t="n">
         <v>326</v>
       </c>
-      <c r="C20" t="n">
-        <v>123.8520269043571</v>
-      </c>
-      <c r="D20" t="n">
-        <v>542.443192061745</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1044,12 +920,6 @@
       <c r="B21" t="n">
         <v>364</v>
       </c>
-      <c r="C21" t="n">
-        <v>145.6552915850334</v>
-      </c>
-      <c r="D21" t="n">
-        <v>574.5929209652927</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1058,12 +928,6 @@
       <c r="B22" t="n">
         <v>377</v>
       </c>
-      <c r="C22" t="n">
-        <v>170.4020947717495</v>
-      </c>
-      <c r="D22" t="n">
-        <v>584.0244957820146</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1072,12 +936,6 @@
       <c r="B23" t="n">
         <v>390</v>
       </c>
-      <c r="C23" t="n">
-        <v>172.1445564250488</v>
-      </c>
-      <c r="D23" t="n">
-        <v>596.7196259413596</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1086,12 +944,6 @@
       <c r="B24" t="n">
         <v>403</v>
       </c>
-      <c r="C24" t="n">
-        <v>192.7230228741888</v>
-      </c>
-      <c r="D24" t="n">
-        <v>612.5983421428283</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1100,12 +952,6 @@
       <c r="B25" t="n">
         <v>416</v>
       </c>
-      <c r="C25" t="n">
-        <v>210.4104467049697</v>
-      </c>
-      <c r="D25" t="n">
-        <v>623.5305610183304</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1114,12 +960,6 @@
       <c r="B26" t="n">
         <v>428</v>
       </c>
-      <c r="C26" t="n">
-        <v>231.6992823292917</v>
-      </c>
-      <c r="D26" t="n">
-        <v>644.4519300335496</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1128,12 +968,6 @@
       <c r="B27" t="n">
         <v>441</v>
       </c>
-      <c r="C27" t="n">
-        <v>234.4879009816692</v>
-      </c>
-      <c r="D27" t="n">
-        <v>660.3934131120953</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1142,12 +976,6 @@
       <c r="B28" t="n">
         <v>454</v>
       </c>
-      <c r="C28" t="n">
-        <v>256.2012368352203</v>
-      </c>
-      <c r="D28" t="n">
-        <v>672.3492434766398</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1156,12 +984,6 @@
       <c r="B29" t="n">
         <v>467</v>
       </c>
-      <c r="C29" t="n">
-        <v>278.5859057751361</v>
-      </c>
-      <c r="D29" t="n">
-        <v>677.3647941033067</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1170,12 +992,6 @@
       <c r="B30" t="n">
         <v>480</v>
       </c>
-      <c r="C30" t="n">
-        <v>264.1697510143547</v>
-      </c>
-      <c r="D30" t="n">
-        <v>678.809914980198</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1184,12 +1000,6 @@
       <c r="B31" t="n">
         <v>492</v>
       </c>
-      <c r="C31" t="n">
-        <v>286.133296431012</v>
-      </c>
-      <c r="D31" t="n">
-        <v>689.1069039644377</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1197,12 +1007,6 @@
       </c>
       <c r="B32" t="n">
         <v>505</v>
-      </c>
-      <c r="C32" t="n">
-        <v>297.1381962080254</v>
-      </c>
-      <c r="D32" t="n">
-        <v>735.0879147929671</v>
       </c>
     </row>
   </sheetData>
